--- a/sources/data/_raw/Where are Duluth students now.xlsx
+++ b/sources/data/_raw/Where are Duluth students now.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiegalioto/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200115-duluth_schools/sources/data/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E37263-CE73-4348-8DF0-752F45E5BF90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F412C765-1157-E940-B629-EE4B92F21B4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="680" windowWidth="18600" windowHeight="16460" xr2:uid="{AC0C2BDF-BE68-A54E-B6C8-097034F25AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Capacity</t>
   </si>
@@ -75,9 +74,6 @@
     <t>East High School</t>
   </si>
   <si>
-    <t>Total Enrollment</t>
-  </si>
-  <si>
     <t>% Receives F/R Lunch</t>
   </si>
   <si>
@@ -88,6 +84,12 @@
   </si>
   <si>
     <t>Lowell Ojibwe Immersion</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
   </si>
 </sst>
 </file>
@@ -96,7 +98,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -167,7 +169,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,7 +513,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E16" sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,17 +524,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -622,7 +627,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>225</v>
@@ -637,7 +642,7 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>68</v>

--- a/sources/data/_raw/Where are Duluth students now.xlsx
+++ b/sources/data/_raw/Where are Duluth students now.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200115-duluth_schools/sources/data/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F412C765-1157-E940-B629-EE4B92F21B4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3388C-0EFD-0146-8FE8-E529516F5D0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="680" windowWidth="18600" windowHeight="16460" xr2:uid="{AC0C2BDF-BE68-A54E-B6C8-097034F25AEE}"/>
   </bookViews>
@@ -513,14 +513,14 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:E16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -528,10 +528,10 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>14</v>
@@ -544,11 +544,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <v>525</v>
+      </c>
+      <c r="C2">
         <v>594</v>
-      </c>
-      <c r="C2" s="3">
-        <v>525</v>
       </c>
       <c r="D2" s="8">
         <v>0.22241681260945709</v>
@@ -561,11 +561,11 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
+        <v>425</v>
+      </c>
+      <c r="C3">
         <v>404</v>
-      </c>
-      <c r="C3" s="4">
-        <v>425</v>
       </c>
       <c r="D3" s="8">
         <v>0.20947630922693267</v>
@@ -578,11 +578,11 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
+        <v>300</v>
+      </c>
+      <c r="C4">
         <v>229</v>
-      </c>
-      <c r="C4" s="4">
-        <v>300</v>
       </c>
       <c r="D4" s="8">
         <v>0.26785714285714285</v>
@@ -595,11 +595,11 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
+        <v>525</v>
+      </c>
+      <c r="C5">
         <v>581</v>
-      </c>
-      <c r="C5" s="4">
-        <v>525</v>
       </c>
       <c r="D5" s="8">
         <v>0.16116504854368932</v>
@@ -612,11 +612,11 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
+        <v>625</v>
+      </c>
+      <c r="C6">
         <v>233</v>
-      </c>
-      <c r="C6" s="9">
-        <v>625</v>
       </c>
       <c r="D6" s="8">
         <v>0.54411764705882348</v>
@@ -629,10 +629,10 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9"/>
+      <c r="C7">
         <v>225</v>
       </c>
-      <c r="C7" s="9"/>
       <c r="D7" s="10">
         <v>0.18222222222222223</v>
       </c>
@@ -644,10 +644,10 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5"/>
+      <c r="C8">
         <v>68</v>
       </c>
-      <c r="C8" s="5"/>
       <c r="D8" s="10">
         <v>0.51470588235294112</v>
       </c>
@@ -659,11 +659,11 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
+        <v>352</v>
+      </c>
+      <c r="C9">
         <v>345</v>
-      </c>
-      <c r="C9" s="4">
-        <v>352</v>
       </c>
       <c r="D9" s="8">
         <v>0.71884984025559107</v>
@@ -676,11 +676,11 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
+        <v>440</v>
+      </c>
+      <c r="C10">
         <v>351</v>
-      </c>
-      <c r="C10" s="4">
-        <v>440</v>
       </c>
       <c r="D10" s="8">
         <v>0.77850162866449513</v>
@@ -693,11 +693,11 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
+        <v>550</v>
+      </c>
+      <c r="C11">
         <v>432</v>
-      </c>
-      <c r="C11" s="4">
-        <v>550</v>
       </c>
       <c r="D11" s="8">
         <v>0.58865248226950351</v>
@@ -710,11 +710,11 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
+        <v>550</v>
+      </c>
+      <c r="C12">
         <v>270</v>
-      </c>
-      <c r="C12" s="4">
-        <v>550</v>
       </c>
       <c r="D12" s="8">
         <v>0.6</v>
@@ -727,11 +727,11 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
+        <v>1281.6000000000001</v>
+      </c>
+      <c r="C13">
         <v>714</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1281.6000000000001</v>
       </c>
       <c r="D13" s="10">
         <v>0.64814814814814814</v>
@@ -744,11 +744,11 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
+        <v>1411.2</v>
+      </c>
+      <c r="C14" s="1">
         <v>1115</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1411.2</v>
       </c>
       <c r="D14" s="10">
         <v>0.23414179104477612</v>
@@ -761,11 +761,11 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
+        <v>1432.8000000000002</v>
+      </c>
+      <c r="C15" s="1">
         <v>1018</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1432.8000000000002</v>
       </c>
       <c r="D15" s="10">
         <v>0.60224948875255624</v>
@@ -778,11 +778,11 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
+        <v>1778.4</v>
+      </c>
+      <c r="C16" s="2">
         <v>1581</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1778.4</v>
       </c>
       <c r="D16" s="10">
         <v>0.19260700389105059</v>
